--- a/data/audit/cs/cs_core.xlsx
+++ b/data/audit/cs/cs_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>15-122</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>15-150</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>15-210</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>15-213</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>18-213</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>15-251</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>15-451</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>10-315</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>10-701</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>11-411</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>11-485</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>15-281</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>15-386</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>16-384</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>16-385</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>15-381</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>02-251</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>05-391</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>11-324</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>15-322</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>15-330</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>15-362</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>15-455</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>15-462</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>17-313</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>15-311</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>15-312</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>15-314</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>15-316</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>15-317</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>15-414</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>15-424</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>17-355</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>80-413</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>17-363</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>15-410</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>15-411</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>15-418</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>15-440</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>15-441</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>15-445</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>21-120</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>21-122</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>21-259</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>21-266</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>21-268</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>21-269</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>15-151</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>21-127</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>21-128</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>21-241</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>21-242</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>15-259</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>21-325</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>36-218</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>36-225</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>36-226</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>36-235</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>36-236</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>07-300</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>17-200</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>76-270</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>07-400</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>07-590</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>07-599</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>07-129</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1247,6 +1450,9 @@
         <is>
           <t>99-101</t>
         </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/audit/cs/cs_core.xlsx
+++ b/data/audit/cs/cs_core.xlsx
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science</t>
+          <t>BS in Computer Science---Computer Science---Introduction to Computer Systems</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science</t>
+          <t>BS in Computer Science---Computer Science---Introduction to Computer Systems</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15-386</t>
+          <t>15-382</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16-384</t>
+          <t>15-386</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16-385</t>
+          <t>16-384</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15-381</t>
+          <t>16-385</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3d Calculus</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3d Calculus</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3d Calculus</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3d Calculus</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-22x sequence</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-22x sequence</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-22x sequence</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-22x sequence</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-23x sequence</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-23x sequence</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-23x sequence</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-23x sequence</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BS in Computer Science---2 SCS Electives</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BS in Computer Science---2 SCS Electives</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BS in Computer Science---2 SCS Electives</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">

--- a/data/audit/cs/cs_core.xlsx
+++ b/data/audit/cs/cs_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07-400</t>
+          <t>15-051</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07-590</t>
+          <t>15-104</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07-599</t>
+          <t>15-110</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,30 +1428,1770 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BS in Computer Science---First-year Immigration Course</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07-129</t>
+          <t>15-112</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>15-121</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>15-122</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15-129</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>15-150</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>15-151</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>15-155</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15-181</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>15-182</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>15-195</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>15-210</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>15-213</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15-221</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>15-251</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>15-259</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>15-281</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>15-282</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>15-288</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>15-295</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>15-300</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>15-311</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>15-312</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>15-314</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>15-316</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>15-317</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>15-322</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>15-330</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>15-348</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>15-351</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>15-356</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>15-362</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>15-381</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>15-382</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>15-386</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>15-390</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>15-410</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>15-411</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>15-414</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>15-415</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15-418</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>15-424</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>15-440</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>15-441</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>15-445</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>15-451</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>15-453</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>15-455</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>15-462</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>15-487</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>15-488</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>15-498</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>15-591</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>15-592</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>15-593</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>15-599</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16-161</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>16-200</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16-211</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16-223</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>16-224</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>16-311</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16-384</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>16-385</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>16-397</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>16-480</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>08-200</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08-532</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>08-533</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>02-201</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>02-223</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>02-250</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>02-251</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>02-261</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>02-262</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>02-318</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>02-510</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>11-324</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11-346</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11-411</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>11-423</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>11-485</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>11-685</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>11-785</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>05-200</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>05-310</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>05-341</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>05-360</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>05-391</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>05-392</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>05-410</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>05-436</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>05-452</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>05-470</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>05-496</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>05-674</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>05-897</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>10-301</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>10-315</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>10-401</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10-701</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>17-200</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>17-313</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>17-333</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>17-334</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>17-355</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>17-356</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>17-363</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>17-402</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>17-405</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>17-413</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>17-425</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>17-437</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>17-450</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>17-562</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>17-684</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---SCS Electives</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>17-726</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BS in Computer Science---First-year Immigration Course</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>07-129</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>BS in Computer Science---Computing @ Carnegie Mellon</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>99-101</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C184" t="n">
         <v>3</v>
       </c>
     </row>
